--- a/client/css/css_parts.xlsx
+++ b/client/css/css_parts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\quest_meeting\client\css\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\HEW_2\client\css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930D64FD-D8F1-4CBC-B708-9CD1F66B609D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCAE476-95EB-4A4A-B7CE-B8155D0875D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{607C0537-5DD3-3B42-9F4F-7E7867608612}"/>
+    <workbookView xWindow="5556" yWindow="564" windowWidth="17280" windowHeight="11724" xr2:uid="{607C0537-5DD3-3B42-9F4F-7E7867608612}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>クラス名</t>
     <phoneticPr fontId="1"/>
@@ -169,6 +169,123 @@
   </si>
   <si>
     <t>&lt;button class="yellow_btn color_brown"&gt;サンプル&lt;/button&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lightgray_btn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>white_btn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>green_btn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>limegreen_btn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brown_btn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>red_btn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gray_btn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄灰色のボタン</t>
+    <rPh sb="0" eb="3">
+      <t>ウスハイイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>茶色のボタン</t>
+    <rPh sb="0" eb="2">
+      <t>チャイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>灰色のボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ハイイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄緑色のボタン</t>
+    <rPh sb="0" eb="2">
+      <t>キミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白色のボタン</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑色のボタン</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤色のボタン</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;button class="lightgray_btn"&gt;サンプル&lt;/button&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;button class="white_btn"&gt;サンプル&lt;/button&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;button class="green_btn"&gt;サンプル&lt;/button&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;button class="limegreen_btn"&gt;サンプル&lt;/button&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;button class="brown_btn"&gt;サンプル&lt;/button&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;button class="red_btn"&gt;サンプル&lt;/button&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;button class="gray_btn"&gt;サンプル&lt;/button&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -542,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D587E19F-06A3-FA40-A431-BF7D1799CAD7}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -653,12 +770,89 @@
         <v>24</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C5:C7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>